--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件其他结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件其他结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,919 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>673</v>
+      </c>
+      <c r="C2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2523</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16399</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1895</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5532</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6834</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762</v>
+      </c>
+      <c r="K2" t="n">
+        <v>480</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84</v>
+      </c>
       <c r="M2" t="n">
-        <v>14078</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>39218</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2638</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>538</v>
+      </c>
+      <c r="C3" t="n">
+        <v>414</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2209</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14355</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2579</v>
+      </c>
+      <c r="G3" t="n">
+        <v>836</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7449</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8232</v>
+      </c>
+      <c r="J3" t="n">
+        <v>858</v>
+      </c>
+      <c r="K3" t="n">
+        <v>924</v>
+      </c>
+      <c r="L3" t="n">
+        <v>119</v>
+      </c>
       <c r="M3" t="n">
-        <v>21736</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>41504</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2991</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1217</v>
+        <v>376</v>
       </c>
       <c r="C4" t="n">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="D4" t="n">
-        <v>1914</v>
+        <v>2144</v>
       </c>
       <c r="E4" t="n">
-        <v>5404</v>
+        <v>11150</v>
       </c>
       <c r="F4" t="n">
-        <v>1175</v>
+        <v>2898</v>
       </c>
       <c r="G4" t="n">
-        <v>194</v>
+        <v>376</v>
       </c>
       <c r="H4" t="n">
-        <v>2471</v>
+        <v>5962</v>
       </c>
       <c r="I4" t="n">
-        <v>3674</v>
+        <v>8325</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>1361</v>
       </c>
       <c r="K4" t="n">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>453</v>
+        <v>129</v>
       </c>
       <c r="M4" t="n">
-        <v>18386</v>
+        <v>36703</v>
       </c>
       <c r="N4" t="n">
-        <v>544</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3292</v>
+        <v>607</v>
       </c>
       <c r="C5" t="n">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="D5" t="n">
-        <v>1883</v>
+        <v>2826</v>
       </c>
       <c r="E5" t="n">
-        <v>4945</v>
+        <v>16800</v>
       </c>
       <c r="F5" t="n">
-        <v>1096</v>
+        <v>3326</v>
       </c>
       <c r="G5" t="n">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="H5" t="n">
-        <v>4762</v>
+        <v>6524</v>
       </c>
       <c r="I5" t="n">
-        <v>4826</v>
+        <v>6975</v>
       </c>
       <c r="J5" t="n">
-        <v>561</v>
+        <v>1037</v>
       </c>
       <c r="K5" t="n">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="L5" t="n">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="M5" t="n">
-        <v>23123</v>
+        <v>41148</v>
       </c>
       <c r="N5" t="n">
-        <v>532</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1233</v>
+        <v>925</v>
       </c>
       <c r="C6" t="n">
-        <v>1246</v>
+        <v>534</v>
       </c>
       <c r="D6" t="n">
-        <v>2065</v>
+        <v>5334</v>
       </c>
       <c r="E6" t="n">
-        <v>6395</v>
+        <v>21596</v>
       </c>
       <c r="F6" t="n">
-        <v>1657</v>
+        <v>4646</v>
       </c>
       <c r="G6" t="n">
-        <v>698</v>
+        <v>210</v>
       </c>
       <c r="H6" t="n">
-        <v>4597</v>
+        <v>7733</v>
       </c>
       <c r="I6" t="n">
-        <v>4798</v>
+        <v>9954</v>
       </c>
       <c r="J6" t="n">
-        <v>605</v>
+        <v>1283</v>
       </c>
       <c r="K6" t="n">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>416</v>
+        <v>144</v>
       </c>
       <c r="M6" t="n">
-        <v>24702</v>
+        <v>53749</v>
       </c>
       <c r="N6" t="n">
-        <v>686</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>864</v>
+        <v>2380</v>
       </c>
       <c r="C7" t="n">
-        <v>530</v>
+        <v>1067</v>
       </c>
       <c r="D7" t="n">
-        <v>871</v>
+        <v>12200</v>
       </c>
       <c r="E7" t="n">
-        <v>4350</v>
+        <v>43761</v>
       </c>
       <c r="F7" t="n">
-        <v>863</v>
+        <v>7582</v>
       </c>
       <c r="G7" t="n">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="H7" t="n">
-        <v>2908</v>
+        <v>10491</v>
       </c>
       <c r="I7" t="n">
-        <v>2563</v>
+        <v>13869</v>
       </c>
       <c r="J7" t="n">
-        <v>295</v>
+        <v>1350</v>
       </c>
       <c r="K7" t="n">
-        <v>766</v>
+        <v>427</v>
       </c>
       <c r="L7" t="n">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="M7" t="n">
-        <v>16519</v>
+        <v>94921</v>
       </c>
       <c r="N7" t="n">
-        <v>2283</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>746</v>
+        <v>3037</v>
       </c>
       <c r="C8" t="n">
-        <v>798</v>
+        <v>1448</v>
       </c>
       <c r="D8" t="n">
-        <v>1949</v>
+        <v>12663</v>
       </c>
       <c r="E8" t="n">
-        <v>5994</v>
+        <v>50755</v>
       </c>
       <c r="F8" t="n">
-        <v>1600</v>
+        <v>8101</v>
       </c>
       <c r="G8" t="n">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="H8" t="n">
-        <v>5890</v>
+        <v>11317</v>
       </c>
       <c r="I8" t="n">
-        <v>5463</v>
+        <v>15682</v>
       </c>
       <c r="J8" t="n">
-        <v>655</v>
+        <v>1468</v>
       </c>
       <c r="K8" t="n">
-        <v>216</v>
+        <v>602</v>
       </c>
       <c r="L8" t="n">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="M8" t="n">
-        <v>24823</v>
+        <v>106633</v>
       </c>
       <c r="N8" t="n">
-        <v>1108</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>677</v>
+        <v>237</v>
       </c>
       <c r="C9" t="n">
-        <v>501</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>1714</v>
+        <v>693</v>
       </c>
       <c r="E9" t="n">
-        <v>10155</v>
+        <v>10088</v>
       </c>
       <c r="F9" t="n">
-        <v>1390</v>
+        <v>2318</v>
       </c>
       <c r="G9" t="n">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>3694</v>
+        <v>1397</v>
       </c>
       <c r="I9" t="n">
-        <v>5151</v>
+        <v>1232</v>
       </c>
       <c r="J9" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="K9" t="n">
-        <v>1566</v>
+        <v>26</v>
       </c>
       <c r="L9" t="n">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M9" t="n">
-        <v>26797</v>
+        <v>16842</v>
       </c>
       <c r="N9" t="n">
-        <v>1053</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474</v>
+        <v>263</v>
       </c>
       <c r="C10" t="n">
-        <v>1129</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>2018</v>
+        <v>491</v>
       </c>
       <c r="E10" t="n">
-        <v>9952</v>
+        <v>4433</v>
       </c>
       <c r="F10" t="n">
-        <v>1646</v>
+        <v>370</v>
       </c>
       <c r="G10" t="n">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>4430</v>
+        <v>1242</v>
       </c>
       <c r="I10" t="n">
-        <v>8924</v>
+        <v>1464</v>
       </c>
       <c r="J10" t="n">
-        <v>614</v>
+        <v>128</v>
       </c>
       <c r="K10" t="n">
-        <v>329</v>
+        <v>35</v>
       </c>
       <c r="L10" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M10" t="n">
-        <v>31688</v>
+        <v>8493</v>
       </c>
       <c r="N10" t="n">
-        <v>1788</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>482</v>
+        <v>637</v>
       </c>
       <c r="C11" t="n">
-        <v>738</v>
+        <v>220</v>
       </c>
       <c r="D11" t="n">
-        <v>2005</v>
+        <v>489</v>
       </c>
       <c r="E11" t="n">
-        <v>17520</v>
+        <v>3931</v>
       </c>
       <c r="F11" t="n">
-        <v>2050</v>
+        <v>491</v>
       </c>
       <c r="G11" t="n">
-        <v>824</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>4752</v>
+        <v>1410</v>
       </c>
       <c r="I11" t="n">
-        <v>6740</v>
+        <v>2713</v>
       </c>
       <c r="J11" t="n">
-        <v>828</v>
+        <v>151</v>
       </c>
       <c r="K11" t="n">
-        <v>333</v>
+        <v>102</v>
       </c>
       <c r="L11" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="M11" t="n">
-        <v>38554</v>
+        <v>10205</v>
       </c>
       <c r="N11" t="n">
-        <v>2199</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>673</v>
+        <v>905</v>
       </c>
       <c r="C12" t="n">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="D12" t="n">
-        <v>2523</v>
+        <v>514</v>
       </c>
       <c r="E12" t="n">
-        <v>16399</v>
+        <v>3249</v>
       </c>
       <c r="F12" t="n">
-        <v>1895</v>
+        <v>456</v>
       </c>
       <c r="G12" t="n">
-        <v>1048</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>5532</v>
+        <v>2047</v>
       </c>
       <c r="I12" t="n">
-        <v>6834</v>
+        <v>3486</v>
       </c>
       <c r="J12" t="n">
-        <v>762</v>
+        <v>182</v>
       </c>
       <c r="K12" t="n">
-        <v>480</v>
+        <v>62</v>
       </c>
       <c r="L12" t="n">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M12" t="n">
-        <v>39218</v>
+        <v>11094</v>
       </c>
       <c r="N12" t="n">
-        <v>2638</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538</v>
+        <v>1335</v>
       </c>
       <c r="C13" t="n">
-        <v>414</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
-        <v>2209</v>
+        <v>704</v>
       </c>
       <c r="E13" t="n">
-        <v>14355</v>
+        <v>2690</v>
       </c>
       <c r="F13" t="n">
-        <v>2579</v>
+        <v>447</v>
       </c>
       <c r="G13" t="n">
-        <v>836</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
-        <v>7449</v>
+        <v>2213</v>
       </c>
       <c r="I13" t="n">
-        <v>8232</v>
+        <v>3450</v>
       </c>
       <c r="J13" t="n">
-        <v>858</v>
+        <v>252</v>
       </c>
       <c r="K13" t="n">
-        <v>924</v>
+        <v>65</v>
       </c>
       <c r="L13" t="n">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="M13" t="n">
-        <v>41504</v>
+        <v>11271</v>
       </c>
       <c r="N13" t="n">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>376</v>
-      </c>
-      <c r="C14" t="n">
-        <v>470</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2144</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11150</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2898</v>
-      </c>
-      <c r="G14" t="n">
-        <v>376</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5962</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8325</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1361</v>
-      </c>
-      <c r="K14" t="n">
-        <v>359</v>
-      </c>
-      <c r="L14" t="n">
-        <v>129</v>
-      </c>
-      <c r="M14" t="n">
-        <v>36703</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>607</v>
-      </c>
-      <c r="C15" t="n">
-        <v>557</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2826</v>
-      </c>
-      <c r="E15" t="n">
-        <v>16800</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3326</v>
-      </c>
-      <c r="G15" t="n">
-        <v>347</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6524</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6975</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1037</v>
-      </c>
-      <c r="K15" t="n">
-        <v>310</v>
-      </c>
-      <c r="L15" t="n">
-        <v>109</v>
-      </c>
-      <c r="M15" t="n">
-        <v>41148</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>925</v>
-      </c>
-      <c r="C16" t="n">
-        <v>534</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5334</v>
-      </c>
-      <c r="E16" t="n">
-        <v>21596</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4646</v>
-      </c>
-      <c r="G16" t="n">
-        <v>210</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7733</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9954</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1283</v>
-      </c>
-      <c r="K16" t="n">
-        <v>269</v>
-      </c>
-      <c r="L16" t="n">
-        <v>144</v>
-      </c>
-      <c r="M16" t="n">
-        <v>53749</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2380</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1067</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12200</v>
-      </c>
-      <c r="E17" t="n">
-        <v>43761</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7582</v>
-      </c>
-      <c r="G17" t="n">
-        <v>339</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10491</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13869</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1350</v>
-      </c>
-      <c r="K17" t="n">
-        <v>427</v>
-      </c>
-      <c r="L17" t="n">
-        <v>287</v>
-      </c>
-      <c r="M17" t="n">
-        <v>94921</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3037</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1448</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12663</v>
-      </c>
-      <c r="E18" t="n">
-        <v>50755</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8101</v>
-      </c>
-      <c r="G18" t="n">
-        <v>424</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11317</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15682</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1468</v>
-      </c>
-      <c r="K18" t="n">
-        <v>602</v>
-      </c>
-      <c r="L18" t="n">
-        <v>278</v>
-      </c>
-      <c r="M18" t="n">
-        <v>106633</v>
-      </c>
-      <c r="N18" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>237</v>
-      </c>
-      <c r="C19" t="n">
-        <v>29</v>
-      </c>
-      <c r="D19" t="n">
-        <v>693</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10088</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2318</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1397</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1232</v>
-      </c>
-      <c r="J19" t="n">
-        <v>510</v>
-      </c>
-      <c r="K19" t="n">
-        <v>26</v>
-      </c>
-      <c r="L19" t="n">
-        <v>17</v>
-      </c>
-      <c r="M19" t="n">
-        <v>16842</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>263</v>
-      </c>
-      <c r="C20" t="n">
-        <v>21</v>
-      </c>
-      <c r="D20" t="n">
-        <v>491</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4433</v>
-      </c>
-      <c r="F20" t="n">
-        <v>370</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1242</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1464</v>
-      </c>
-      <c r="J20" t="n">
-        <v>128</v>
-      </c>
-      <c r="K20" t="n">
-        <v>35</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8493</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>637</v>
-      </c>
-      <c r="C21" t="n">
-        <v>220</v>
-      </c>
-      <c r="D21" t="n">
-        <v>489</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3931</v>
-      </c>
-      <c r="F21" t="n">
-        <v>491</v>
-      </c>
-      <c r="G21" t="n">
-        <v>34</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1410</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2713</v>
-      </c>
-      <c r="J21" t="n">
-        <v>151</v>
-      </c>
-      <c r="K21" t="n">
-        <v>102</v>
-      </c>
-      <c r="L21" t="n">
-        <v>21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>10205</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>905</v>
-      </c>
-      <c r="C22" t="n">
-        <v>131</v>
-      </c>
-      <c r="D22" t="n">
-        <v>514</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3249</v>
-      </c>
-      <c r="F22" t="n">
-        <v>456</v>
-      </c>
-      <c r="G22" t="n">
-        <v>27</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2047</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3486</v>
-      </c>
-      <c r="J22" t="n">
-        <v>182</v>
-      </c>
-      <c r="K22" t="n">
-        <v>62</v>
-      </c>
-      <c r="L22" t="n">
-        <v>31</v>
-      </c>
-      <c r="M22" t="n">
-        <v>11094</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
